--- a/tests/data/sample_st_conc_v1.xlsx
+++ b/tests/data/sample_st_conc_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/msi/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2064391A-AFDA-E540-94B0-9E81767BB24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469A39DE-FE1D-AA48-A35B-5C040AC2C3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="19820" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="35840" windowHeight="19820" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
   <si>
     <t>parameter</t>
   </si>
@@ -564,7 +564,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,10 +784,18 @@
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
+      <c r="A15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2500</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
@@ -817,7 +825,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
